--- a/uploads/class_type.xlsx
+++ b/uploads/class_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float_working2\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26334F37-D900-44D9-BCF1-E1762C18936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73F84D-A78F-4B51-8E89-EECC3105A589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="2508" windowWidth="13584" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="134">
   <si>
     <t>subject</t>
   </si>
@@ -88,9 +88,6 @@
     <t>CHY</t>
   </si>
   <si>
-    <t xml:space="preserve">LT </t>
-  </si>
-  <si>
     <t xml:space="preserve">PC </t>
   </si>
   <si>
@@ -331,88 +328,100 @@
     <t>MNM/QM</t>
   </si>
   <si>
-    <t xml:space="preserve">CP/PHY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT W/S/PHY </t>
-  </si>
-  <si>
-    <t>CP / PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chem / C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chem / IT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT/ C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC /CHEMISTRY </t>
-  </si>
-  <si>
-    <t>CHEMISTRY /IT W/S</t>
-  </si>
-  <si>
     <t>PC  /IT W/S</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEM </t>
-  </si>
-  <si>
     <t xml:space="preserve">CED </t>
   </si>
   <si>
-    <t>CHEM /W/S EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS /DBMS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIC /MC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC Machines /Power Electronics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM &amp; HM /MT </t>
-  </si>
-  <si>
-    <t>N/W /MINI PROJECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMUNICATION / MINI PROJECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS /PE           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADA /TE-II </t>
-  </si>
-  <si>
-    <t>PROJ[TE/GT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEE</t>
-  </si>
-  <si>
     <t>DM/CSA</t>
   </si>
   <si>
     <t>AMJT/SCLM</t>
+  </si>
+  <si>
+    <t>TE LAB</t>
+  </si>
+  <si>
+    <t>CES LAB</t>
+  </si>
+  <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>PROJ[TELAB/GTLAB]</t>
+  </si>
+  <si>
+    <t>CADA LAB/TE-II LAB</t>
+  </si>
+  <si>
+    <t>COMMUNICATION / MINI PROJECT LAB</t>
+  </si>
+  <si>
+    <t>N/W LAB/MINI PROJECT</t>
+  </si>
+  <si>
+    <t>FM &amp; HM Lab/MT Lab</t>
+  </si>
+  <si>
+    <t>CEM LAB</t>
+  </si>
+  <si>
+    <t>MT LAB</t>
+  </si>
+  <si>
+    <t>DC Machines Lab/Power Electronics Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIC LAB/MC LAB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS LAB/DBMS </t>
+  </si>
+  <si>
+    <t>OS LAB / AI LAB</t>
+  </si>
+  <si>
+    <t>CHEM LAB /W/S EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM LAB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC LAB/CHEMISTRY LAB </t>
+  </si>
+  <si>
+    <t>CHEMISTRY LAB /IT W/S</t>
+  </si>
+  <si>
+    <t>Chem Lab / C Lab</t>
+  </si>
+  <si>
+    <t>IT/ C Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chem lab/ IT Lb </t>
+  </si>
+  <si>
+    <t>CP LAB / IT W/S</t>
+  </si>
+  <si>
+    <t>CP LAB/ PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP/PHY LAB </t>
+  </si>
+  <si>
+    <t>IT W/S/PHY LAB</t>
+  </si>
+  <si>
+    <t>CP/IT W/S</t>
+  </si>
+  <si>
+    <t>PROJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS Lab/PE Lab          </t>
   </si>
 </sst>
 </file>
@@ -783,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +958,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -957,7 +966,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -972,16 +981,16 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1000,12 +1009,12 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1013,7 +1022,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1021,7 +1030,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -1045,7 +1054,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1053,7 +1062,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1204,16 +1213,16 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -1365,7 +1374,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -1452,16 +1461,16 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -1469,7 +1478,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -1509,7 +1518,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -1549,7 +1558,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -1557,7 +1566,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -1565,7 +1574,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -1573,7 +1582,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -1581,7 +1590,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -1589,7 +1598,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -1597,7 +1606,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -1605,23 +1614,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -1629,7 +1638,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -1637,7 +1646,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -1645,7 +1654,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -1653,7 +1662,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -1661,7 +1670,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -1669,7 +1678,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -1677,7 +1686,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
@@ -1685,7 +1694,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -1693,7 +1702,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -1701,7 +1710,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
@@ -1709,7 +1718,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
@@ -1717,7 +1726,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -1725,7 +1734,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -1733,7 +1742,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -1741,7 +1750,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -1749,7 +1758,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -1757,7 +1766,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -1765,15 +1774,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>121</v>
+      <c r="A123" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -1781,7 +1790,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -1789,7 +1798,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -1797,7 +1806,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -1805,7 +1814,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -1813,7 +1822,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -1821,7 +1830,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -1829,7 +1838,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -1837,9 +1846,41 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>127</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
         <v>12</v>
       </c>
     </row>

--- a/uploads/class_type.xlsx
+++ b/uploads/class_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float_working2\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73F84D-A78F-4B51-8E89-EECC3105A589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482E63BB-337B-47C4-B1DE-E088B1AA6D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="136">
   <si>
     <t>subject</t>
   </si>
@@ -349,9 +349,6 @@
     <t>BEE</t>
   </si>
   <si>
-    <t>PROJ[TELAB/GTLAB]</t>
-  </si>
-  <si>
     <t>CADA LAB/TE-II LAB</t>
   </si>
   <si>
@@ -422,13 +419,22 @@
   </si>
   <si>
     <t xml:space="preserve">PS Lab/PE Lab          </t>
+  </si>
+  <si>
+    <t>Activity Hour</t>
+  </si>
+  <si>
+    <t>PROJ[TE LAB/GT LAB]</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +446,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -488,6 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1628,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -1622,7 +1636,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -1630,7 +1644,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -1646,7 +1660,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -1654,7 +1668,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -1662,7 +1676,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -1670,7 +1684,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -1678,7 +1692,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -1694,7 +1708,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -1710,7 +1724,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
@@ -1718,7 +1732,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
@@ -1726,7 +1740,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -1734,7 +1748,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -1742,7 +1756,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -1750,7 +1764,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -1758,7 +1772,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -1766,7 +1780,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -1774,7 +1788,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -1782,7 +1796,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -1806,7 +1820,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -1830,7 +1844,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -1838,7 +1852,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -1846,7 +1860,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -1854,7 +1868,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -1862,7 +1876,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -1878,9 +1892,25 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
         <v>12</v>
       </c>
     </row>
